--- a/data/trans_dic/P36$fruta-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36$fruta-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,59; 4,22</t>
+          <t>1,54; 4,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,48; 10,67</t>
+          <t>6,34; 10,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,99; 15,19</t>
+          <t>10,31; 15,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,11; 7,46</t>
+          <t>3,99; 7,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,27; 13,42</t>
+          <t>8,36; 13,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,14; 15,18</t>
+          <t>10,04; 14,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,18; 5,18</t>
+          <t>3,16; 5,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,82; 11,13</t>
+          <t>8,02; 11,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,92; 14,46</t>
+          <t>10,74; 14,33</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,89; 10,77</t>
+          <t>6,9; 10,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,03; 11,94</t>
+          <t>8,16; 11,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,26; 15,79</t>
+          <t>11,44; 15,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,59; 13,96</t>
+          <t>9,49; 13,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,38; 12,57</t>
+          <t>8,49; 12,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,62; 16,25</t>
+          <t>11,69; 15,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,8; 11,71</t>
+          <t>8,78; 11,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,78; 11,62</t>
+          <t>8,8; 11,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,21; 15,24</t>
+          <t>12,16; 15,37</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,32; 13,21</t>
+          <t>8,46; 13,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,93; 18,84</t>
+          <t>12,96; 18,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,92; 15,03</t>
+          <t>9,67; 14,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,87; 17,03</t>
+          <t>11,92; 17,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,56; 17,88</t>
+          <t>12,5; 17,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,19; 17,25</t>
+          <t>12,15; 17,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,81; 14,62</t>
+          <t>10,79; 14,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,3; 17,08</t>
+          <t>13,44; 17,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,82; 15,39</t>
+          <t>11,73; 15,23</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,05; 11,96</t>
+          <t>8,14; 11,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,92; 16,44</t>
+          <t>11,89; 16,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,25; 15,88</t>
+          <t>11,29; 15,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,8; 12,71</t>
+          <t>9,0; 12,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,31; 16,47</t>
+          <t>12,45; 16,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,31; 14,68</t>
+          <t>10,52; 14,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,95; 11,66</t>
+          <t>9,0; 11,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,92; 15,99</t>
+          <t>12,81; 15,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,36; 14,53</t>
+          <t>11,27; 14,39</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,12; 9,12</t>
+          <t>7,17; 9,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,93; 13,17</t>
+          <t>10,97; 13,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,97; 14,21</t>
+          <t>11,9; 14,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,69; 11,89</t>
+          <t>9,66; 11,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,47; 13,8</t>
+          <t>11,53; 13,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,2; 14,48</t>
+          <t>12,31; 14,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,66; 10,12</t>
+          <t>8,72; 10,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,48; 13,15</t>
+          <t>11,46; 13,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,37; 14,0</t>
+          <t>12,34; 14,01</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que desayuna, al menos, fruta o zumo</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>18246</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>58570</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>85020</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>38373</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>74203</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>84220</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>56620</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>132774</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>169240</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>10653; 30232</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>44445; 75728</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>69397; 103350</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>27474; 50310</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>58210; 90981</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>67408; 100180</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>43604; 71303</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>112062; 157647</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>144370; 192649</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>82522</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>100289</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>138207</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>112237</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>106515</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>143231</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>194759</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>206804</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>281437</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>66148; 102965</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>83107; 119788</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>116872; 160819</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>91796; 132733</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>87447; 128115</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>121782; 165278</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>169172; 225859</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>180147; 237027</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>250816; 317118</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>71526</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>118500</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>92266</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>98754</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>115776</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>114674</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>170280</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>234276</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>206940</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>57303; 92527</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>97914; 142293</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>73318; 112916</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>81498; 117405</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>96987; 138321</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>95409; 135743</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>146882; 196360</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>205886; 269355</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>181116; 235079</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>92324</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>133195</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>125862</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>109923</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>150885</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>129270</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>202248</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>284080</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>255132</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>76534; 112127</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>112431; 154744</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>105843; 148259</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>93241; 131121</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>130680; 176752</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>109669; 155167</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>177850; 231897</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>255672; 317317</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>223228; 284938</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>597</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>791</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>864</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>264619</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>410555</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>441354</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>359288</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>447378</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>471394</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>623906</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>857934</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>912748</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>234573; 300452</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>375159; 453293</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>403547; 479964</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>326152; 398925</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>409578; 488101</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>435813; 520047</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>579619; 676510</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>798805; 912944</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>855413; 971375</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>